--- a/delta2/lib_e/temp_evidence.xlsx
+++ b/delta2/lib_e/temp_evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F0402-A45D-0045-8441-59AE8AB4802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5597CC-8DF1-F949-86AB-C726D433BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>evidence_object</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>map_did</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -140,11 +146,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F2" insertRow="1" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F2" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G2" insertRow="1" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G2" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
@@ -471,22 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5" customWidth="1"/>
-    <col min="5" max="5" width="143.33203125" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
+    <col min="6" max="6" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -494,25 +501,29 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/temp_evidence.xlsx
+++ b/delta2/lib_e/temp_evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5597CC-8DF1-F949-86AB-C726D433BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42229D11-F713-0443-B342-F33C867BD1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -38,18 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>evidence_object</t>
-  </si>
-  <si>
-    <t>non_standard_meta</t>
-  </si>
-  <si>
     <t>eid</t>
   </si>
   <si>
-    <t>source_type</t>
-  </si>
-  <si>
     <t>map_pid</t>
   </si>
   <si>
@@ -57,6 +48,15 @@
   </si>
   <si>
     <t>map_did</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>ns_meta</t>
+  </si>
+  <si>
+    <t>eid_type</t>
   </si>
 </sst>
 </file>
@@ -152,10 +152,10 @@
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,7 +481,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,28 +489,28 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5" customWidth="1"/>
-    <col min="6" max="6" width="143.33203125" customWidth="1"/>
+    <col min="5" max="5" width="143.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>

--- a/delta2/lib_e/temp_evidence.xlsx
+++ b/delta2/lib_e/temp_evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42229D11-F713-0443-B342-F33C867BD1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49B191-C63B-0742-BBB9-E194EDB63B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>eid</t>
   </si>
@@ -57,6 +57,135 @@
   </si>
   <si>
     <t>eid_type</t>
+  </si>
+  <si>
+    <t>{ "data": "2023-12", "url": "https://www.cisa.gov/sites/default/files/2023-12/aa23-352a-stopransomware-play-ransomware.pdf", "tags": ["Play"]}</t>
+  </si>
+  <si>
+    <t>play-eid0001</t>
+  </si>
+  <si>
+    <t>Distribute EXE Via GPO</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>MimiKatz</t>
+  </si>
+  <si>
+    <t>Gmer</t>
+  </si>
+  <si>
+    <t>IOBit</t>
+  </si>
+  <si>
+    <t>PowerTool</t>
+  </si>
+  <si>
+    <t>Grixba</t>
+  </si>
+  <si>
+    <t>ProcessHacker</t>
+  </si>
+  <si>
+    <t>Plink</t>
+  </si>
+  <si>
+    <t>Nltest</t>
+  </si>
+  <si>
+    <t>WInPEAS</t>
+  </si>
+  <si>
+    <t>WinSCP</t>
+  </si>
+  <si>
+    <t>WinRAR</t>
+  </si>
+  <si>
+    <t>Nekto - PriviCMD</t>
+  </si>
+  <si>
+    <t>Cobalt Strike</t>
+  </si>
+  <si>
+    <t>htool</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>PsExec</t>
+  </si>
+  <si>
+    <t>AdFind</t>
+  </si>
+  <si>
+    <t>Bloodhound</t>
+  </si>
+  <si>
+    <t>GMER</t>
+  </si>
+  <si>
+    <t>A .play extension</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>play-eid0002</t>
+  </si>
+  <si>
+    <t>play-eid0003</t>
+  </si>
+  <si>
+    <t>play-eid0004</t>
+  </si>
+  <si>
+    <t>play-eid0005</t>
+  </si>
+  <si>
+    <t>play-eid0006</t>
+  </si>
+  <si>
+    <t>play-eid0007</t>
+  </si>
+  <si>
+    <t>play-eid0008</t>
+  </si>
+  <si>
+    <t>play-eid0009</t>
+  </si>
+  <si>
+    <t>play-eid0010</t>
+  </si>
+  <si>
+    <t>play-eid0011</t>
+  </si>
+  <si>
+    <t>play-eid0012</t>
+  </si>
+  <si>
+    <t>play-eid0013</t>
+  </si>
+  <si>
+    <t>play-eid0014</t>
+  </si>
+  <si>
+    <t>play-eid0015</t>
+  </si>
+  <si>
+    <t>play-eid0016</t>
+  </si>
+  <si>
+    <t>play-eid0017</t>
+  </si>
+  <si>
+    <t>play-eid0018</t>
+  </si>
+  <si>
+    <t>play-eid0019</t>
   </si>
 </sst>
 </file>
@@ -107,10 +236,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -146,16 +272,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G2" insertRow="1" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G2" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:G20" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{85834C32-2D65-CD48-92FE-AB72134D121E}" name="ns_meta"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,8 +615,9 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="143.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="132.83203125" customWidth="1"/>
+    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="7" max="7" width="147.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -516,14 +643,328 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/temp_evidence.xlsx
+++ b/delta2/lib_e/temp_evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49B191-C63B-0742-BBB9-E194EDB63B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140D103-8D0E-8244-ADBE-5798AFBF2651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>eid</t>
   </si>
@@ -60,132 +60,6 @@
   </si>
   <si>
     <t>{ "data": "2023-12", "url": "https://www.cisa.gov/sites/default/files/2023-12/aa23-352a-stopransomware-play-ransomware.pdf", "tags": ["Play"]}</t>
-  </si>
-  <si>
-    <t>play-eid0001</t>
-  </si>
-  <si>
-    <t>Distribute EXE Via GPO</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>MimiKatz</t>
-  </si>
-  <si>
-    <t>Gmer</t>
-  </si>
-  <si>
-    <t>IOBit</t>
-  </si>
-  <si>
-    <t>PowerTool</t>
-  </si>
-  <si>
-    <t>Grixba</t>
-  </si>
-  <si>
-    <t>ProcessHacker</t>
-  </si>
-  <si>
-    <t>Plink</t>
-  </si>
-  <si>
-    <t>Nltest</t>
-  </si>
-  <si>
-    <t>WInPEAS</t>
-  </si>
-  <si>
-    <t>WinSCP</t>
-  </si>
-  <si>
-    <t>WinRAR</t>
-  </si>
-  <si>
-    <t>Nekto - PriviCMD</t>
-  </si>
-  <si>
-    <t>Cobalt Strike</t>
-  </si>
-  <si>
-    <t>htool</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>PsExec</t>
-  </si>
-  <si>
-    <t>AdFind</t>
-  </si>
-  <si>
-    <t>Bloodhound</t>
-  </si>
-  <si>
-    <t>GMER</t>
-  </si>
-  <si>
-    <t>A .play extension</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>play-eid0002</t>
-  </si>
-  <si>
-    <t>play-eid0003</t>
-  </si>
-  <si>
-    <t>play-eid0004</t>
-  </si>
-  <si>
-    <t>play-eid0005</t>
-  </si>
-  <si>
-    <t>play-eid0006</t>
-  </si>
-  <si>
-    <t>play-eid0007</t>
-  </si>
-  <si>
-    <t>play-eid0008</t>
-  </si>
-  <si>
-    <t>play-eid0009</t>
-  </si>
-  <si>
-    <t>play-eid0010</t>
-  </si>
-  <si>
-    <t>play-eid0011</t>
-  </si>
-  <si>
-    <t>play-eid0012</t>
-  </si>
-  <si>
-    <t>play-eid0013</t>
-  </si>
-  <si>
-    <t>play-eid0014</t>
-  </si>
-  <si>
-    <t>play-eid0015</t>
-  </si>
-  <si>
-    <t>play-eid0016</t>
-  </si>
-  <si>
-    <t>play-eid0017</t>
-  </si>
-  <si>
-    <t>play-eid0018</t>
-  </si>
-  <si>
-    <t>play-eid0019</t>
   </si>
 </sst>
 </file>
@@ -272,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G20" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:G20" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:G2" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
@@ -604,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,326 +517,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
         <v>7</v>
       </c>
     </row>

--- a/delta2/lib_e/temp_evidence.xlsx
+++ b/delta2/lib_e/temp_evidence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140D103-8D0E-8244-ADBE-5798AFBF2651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF26EEE6-1867-FE44-BC72-FDA6C071579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>eid</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>map_did</t>
   </si>
   <si>
     <t>evidence</t>
@@ -110,10 +107,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -146,12 +140,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G2" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:G2" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F8B6E0DD-D4FA-1C43-B56F-C68835F236FD}" name="map_did" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F2" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:F2" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="6">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{794120D3-18F6-5949-81E6-52D88B752F29}" name="description" dataDxfId="0"/>
@@ -478,23 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="132.83203125" customWidth="1"/>
-    <col min="6" max="6" width="61" customWidth="1"/>
-    <col min="7" max="7" width="147.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.83203125" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="147.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,30 +495,26 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
